--- a/verification excell du payoff.xlsx
+++ b/verification excell du payoff.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Rachat-Action-Vol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartb\Rachat-Action-Vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6A3A78-0F82-3744-ACF0-2E20ABA7D133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F11D12E-B847-4A2D-BC22-A5805FC57C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{EB2035A8-5003-4645-A437-07175A3AB485}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB2035A8-5003-4645-A437-07175A3AB485}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -874,10 +874,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,64 +1218,64 @@
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="2"/>
       <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1"/>
+      <c r="Y1" s="2"/>
       <c r="Z1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="K2">
         <v>0.23763999999999999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.23763999999999999</v>
       </c>
       <c r="M2" t="s">
@@ -1348,7 +1348,7 @@
         <v>0.30940511460637976</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>-2.2666705780553792E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>-2.8143987778299215E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>2.7045498336902992E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>9.3357043958997212E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>5.8285357916294349E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>3.3377912824055908E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>2.7757429195176299E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>2.0010551997382948E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>6.7824705573057411E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>7.8621147394728895E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>3.1218360120167287E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>3.006474664035439E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>3.5062002941158504E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>3.5296622024330251E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>8.7701452627080901E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>5.9990156663333543E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>5.997253707360101E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>1.9409029199733558E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>2.1304050897282907E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1.7428807184753469E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>1.0340903693082599E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>1.6683225862548587E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>3.2351454939248372E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>5.1815678232309254E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>2.7518990268331051E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>3.7724081928519561E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>1.4674175850864888E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.27465921998647214</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>4.0228092633794524E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>8.0307158968859559E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>1.0732026535529319E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1.3547186367779628E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>3.7828759548071532E-10</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>80</v>
       </c>
